--- a/ProtocolLum/model/ResultsProtocolLum.xlsx
+++ b/ProtocolLum/model/ResultsProtocolLum.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ppID</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>Count R</t>
+  </si>
+  <si>
+    <t>L_002</t>
+  </si>
+  <si>
+    <t>L_002</t>
+  </si>
+  <si>
+    <t>L_003</t>
+  </si>
+  <si>
+    <t>L_003</t>
+  </si>
+  <si>
+    <t>L_004</t>
+  </si>
+  <si>
+    <t>L_004</t>
+  </si>
+  <si>
+    <t>L_006</t>
+  </si>
+  <si>
+    <t>L_006</t>
   </si>
   <si>
     <t>L_002</t>
@@ -101,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -119,11 +143,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -135,6 +167,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,7 +184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.046875" customWidth="true"/>
@@ -256,13 +296,81 @@
         <v>0.68559999999999999</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.74339999999999995</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.8095</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.69750000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.751</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.68820000000000003</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.046875" customWidth="true"/>
@@ -392,6 +500,82 @@
       </c>
       <c r="G6" s="0"/>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0">
+        <v>11.733333333333333</v>
+      </c>
+      <c r="C7" s="0">
+        <v>15.199999999999999</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0">
+        <v>13.133333333333333</v>
+      </c>
+      <c r="F7" s="0">
+        <v>15.466666666666667</v>
+      </c>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0">
+        <v>24.933333333333334</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0">
+        <v>22.333333333333332</v>
+      </c>
+      <c r="F8" s="0">
+        <v>24.133333333333333</v>
+      </c>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0">
+        <v>19.733333333333334</v>
+      </c>
+      <c r="C9" s="0">
+        <v>23.066666666666666</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F9" s="0">
+        <v>20.600000000000001</v>
+      </c>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="0">
+        <v>12.266666666666667</v>
+      </c>
+      <c r="C10" s="0">
+        <v>16.533333333333335</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0">
+        <v>12.066666666666666</v>
+      </c>
+      <c r="F10" s="0">
+        <v>15.133333333333333</v>
+      </c>
+      <c r="G10" s="0"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/ProtocolLum/model/ResultsProtocolLum.xlsx
+++ b/ProtocolLum/model/ResultsProtocolLum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0117545\Documents\GitHub\ULIFT_BC\ProtocolLum\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801A6BCC-6068-4D7F-8743-E808728269A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9ED821-0199-4C6E-A721-C638C0E44094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2028" windowWidth="17220" windowHeight="8856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="2" r:id="rId1"/>
@@ -192,6 +192,2179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Left</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MinutesActive!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GT L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MinutesActive!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE40-4E76-AB00-E93695A3D4FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MinutesActive!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pred L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MinutesActive!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.533333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.466666666666665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.666666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE40-4E76-AB00-E93695A3D4FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MinutesActive!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MinutesActive!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.420000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE40-4E76-AB00-E93695A3D4FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="251757600"/>
+        <c:axId val="251758016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="251757600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251758016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="251758016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251757600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Right</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MinutesActive!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GT R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MinutesActive!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.466666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F58-4E46-9F44-CE902F7E56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MinutesActive!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pred R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MinutesActive!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.733333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F58-4E46-9F44-CE902F7E56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MinutesActive!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MinutesActive!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F58-4E46-9F44-CE902F7E56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="249398176"/>
+        <c:axId val="249393600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="249398176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249393600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249393600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249398176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BBA864-EE8C-411F-8F34-A464CBBC5889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F1521A-A152-4174-8712-075B81647ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,7 +2904,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -776,14 +2949,18 @@
       <c r="C2" s="2">
         <v>21.666666666666668</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>26.28</v>
+      </c>
       <c r="E2" s="2">
         <v>16.666666666666668</v>
       </c>
       <c r="F2" s="2">
         <v>21.133333333333333</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>26.22</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -795,14 +2972,18 @@
       <c r="C3" s="2">
         <v>15.2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>16.600000000000001</v>
+      </c>
       <c r="E3" s="2">
         <v>13.133333333333333</v>
       </c>
       <c r="F3" s="2">
         <v>15.466666666666667</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
@@ -814,14 +2995,18 @@
       <c r="C4" s="2">
         <v>24.933333333333334</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>26.88</v>
+      </c>
       <c r="E4" s="2">
         <v>22.333333333333332</v>
       </c>
       <c r="F4" s="2">
         <v>23.933333333333334</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>27.13</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
@@ -833,14 +3018,18 @@
       <c r="C5" s="2">
         <v>24.066666666666666</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>28.43</v>
+      </c>
       <c r="E5" s="2">
         <v>16.600000000000001</v>
       </c>
       <c r="F5" s="2">
         <v>20.6</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>27.98</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -852,14 +3041,18 @@
       <c r="C6" s="2">
         <v>16.533333333333335</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>17.05</v>
+      </c>
       <c r="E6" s="2">
         <v>12.066666666666666</v>
       </c>
       <c r="F6" s="2">
         <v>15.266666666666667</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>16.82</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -871,14 +3064,18 @@
       <c r="C7" s="2">
         <v>15.666666666666666</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>20.27</v>
+      </c>
       <c r="E7" s="2">
         <v>13.8</v>
       </c>
       <c r="F7" s="2">
         <v>15.6</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>20.05</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
@@ -890,14 +3087,18 @@
       <c r="C8" s="2">
         <v>12.866666666666667</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>15.15</v>
+      </c>
       <c r="E8" s="2">
         <v>11.266666666666667</v>
       </c>
       <c r="F8" s="2">
         <v>13.266666666666667</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>14.87</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -909,14 +3110,18 @@
       <c r="C9" s="2">
         <v>20.133333333333333</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>19.77</v>
+      </c>
       <c r="E9" s="2">
         <v>16.333333333333332</v>
       </c>
       <c r="F9" s="2">
         <v>19.333333333333332</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>20.350000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
@@ -928,14 +3133,18 @@
       <c r="C10" s="2">
         <v>17.466666666666665</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>20.329999999999998</v>
+      </c>
       <c r="E10" s="2">
         <v>15.333333333333334</v>
       </c>
       <c r="F10" s="2">
         <v>17.266666666666666</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>20.32</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
@@ -947,45 +3156,51 @@
       <c r="C11" s="2">
         <v>17.666666666666668</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>19.420000000000002</v>
+      </c>
       <c r="E11" s="2">
         <v>14.466666666666667</v>
       </c>
       <c r="F11" s="2">
         <v>17.733333333333334</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>19.57</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="3">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B13:G13" si="0">AVERAGE(B2:B11)</f>
         <v>14.993333333333334</v>
       </c>
       <c r="C13" s="3">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>18.619999999999997</v>
       </c>
-      <c r="D13" s="3" t="e">
-        <f>AVERAGE(D2:D11)</f>
-        <v>#DIV/0!</v>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>21.018000000000001</v>
       </c>
       <c r="E13" s="3">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>15.2</v>
       </c>
       <c r="F13" s="3">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>17.96</v>
       </c>
-      <c r="G13" s="3" t="e">
-        <f>AVERAGE(G2:G11)</f>
-        <v>#DIV/0!</v>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>21.000999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>